--- a/data/pca/factorExposure/factorExposure_2009-04-01.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-04-01.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.0168746749703016</v>
+        <v>0.01643137893942501</v>
       </c>
       <c r="C2">
-        <v>-0.001939631579422608</v>
+        <v>0.001428419788305946</v>
       </c>
       <c r="D2">
-        <v>0.007020644636522503</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.007711939020742074</v>
+      </c>
+      <c r="E2">
+        <v>0.001567740260444505</v>
+      </c>
+      <c r="F2">
+        <v>0.02089820642280738</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,220 +751,316 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.08551012462457772</v>
+        <v>0.08866145006539364</v>
       </c>
       <c r="C4">
-        <v>-0.01946524731688437</v>
+        <v>0.01553854053010334</v>
       </c>
       <c r="D4">
-        <v>0.08261684429822296</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.08544392251237262</v>
+      </c>
+      <c r="E4">
+        <v>0.0361836071976511</v>
+      </c>
+      <c r="F4">
+        <v>-0.04393319891564693</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.0006796656857981956</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1.06987374590252e-05</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>0.0002979497770752365</v>
+      </c>
+      <c r="E5">
+        <v>-0.0001321169146739592</v>
+      </c>
+      <c r="F5">
+        <v>0.0001903541871622475</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.1603171502839761</v>
+        <v>0.1663293415647139</v>
       </c>
       <c r="C6">
-        <v>-0.03653976365692541</v>
+        <v>0.03478856578013462</v>
       </c>
       <c r="D6">
-        <v>-0.02511480922552967</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.01553934976717857</v>
+      </c>
+      <c r="E6">
+        <v>0.01926672533303075</v>
+      </c>
+      <c r="F6">
+        <v>-0.05328654836512801</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.05502225094540667</v>
+        <v>0.05972588074632356</v>
       </c>
       <c r="C7">
-        <v>-0.001371791000410627</v>
+        <v>-0.001395802990513308</v>
       </c>
       <c r="D7">
-        <v>0.04797269002444317</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.05283531802746022</v>
+      </c>
+      <c r="E7">
+        <v>0.01764292173655295</v>
+      </c>
+      <c r="F7">
+        <v>-0.05329289919354056</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.05763693325209746</v>
+        <v>0.05482160960043932</v>
       </c>
       <c r="C8">
-        <v>0.009931986336529988</v>
+        <v>-0.01137370531474756</v>
       </c>
       <c r="D8">
-        <v>0.02891086383229344</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03122112640451183</v>
+      </c>
+      <c r="E8">
+        <v>0.01253734835754323</v>
+      </c>
+      <c r="F8">
+        <v>0.03580264122173401</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.06633000125152906</v>
+        <v>0.06936422534425146</v>
       </c>
       <c r="C9">
-        <v>-0.01502706635402055</v>
+        <v>0.01115865016428506</v>
       </c>
       <c r="D9">
-        <v>0.08635286205164709</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.08938061830963638</v>
+      </c>
+      <c r="E9">
+        <v>0.03464155016292105</v>
+      </c>
+      <c r="F9">
+        <v>-0.06347921016642387</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.09297735619735019</v>
+        <v>0.09019566516585746</v>
       </c>
       <c r="C10">
-        <v>-0.02298236038336736</v>
+        <v>0.0248956153110997</v>
       </c>
       <c r="D10">
-        <v>-0.1620135540134862</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.1529315152935384</v>
+      </c>
+      <c r="E10">
+        <v>-0.04220304567832095</v>
+      </c>
+      <c r="F10">
+        <v>0.07087412418739321</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.08733604304011144</v>
+        <v>0.08464550953195721</v>
       </c>
       <c r="C11">
-        <v>-0.01700408483399612</v>
+        <v>0.01230047398219716</v>
       </c>
       <c r="D11">
-        <v>0.1232296900356279</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.1272933347206063</v>
+      </c>
+      <c r="E11">
+        <v>0.06082089693814783</v>
+      </c>
+      <c r="F11">
+        <v>-0.01680284834209891</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.09233664327503993</v>
+        <v>0.08767150875400948</v>
       </c>
       <c r="C12">
-        <v>-0.01500682813359909</v>
+        <v>0.009751394393354148</v>
       </c>
       <c r="D12">
-        <v>0.1287769405422672</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.1405101453867014</v>
+      </c>
+      <c r="E12">
+        <v>0.0641780367720108</v>
+      </c>
+      <c r="F12">
+        <v>-0.01969486049114462</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.04442124049173646</v>
+        <v>0.04471982943707742</v>
       </c>
       <c r="C13">
-        <v>-0.00776978767875857</v>
+        <v>0.00409339974295954</v>
       </c>
       <c r="D13">
-        <v>0.04982563608446677</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.05809851348681559</v>
+      </c>
+      <c r="E13">
+        <v>0.004535458729882531</v>
+      </c>
+      <c r="F13">
+        <v>-0.0155901965365982</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.01862354041802232</v>
+        <v>0.02158236750523402</v>
       </c>
       <c r="C14">
-        <v>-0.01468502999330928</v>
+        <v>0.01367977038157027</v>
       </c>
       <c r="D14">
-        <v>0.03504246901380457</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.03820291576861518</v>
+      </c>
+      <c r="E14">
+        <v>0.02596363524500963</v>
+      </c>
+      <c r="F14">
+        <v>-0.02324001413414516</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.03376420111370918</v>
+        <v>0.03471502825038177</v>
       </c>
       <c r="C15">
-        <v>-0.008236683006729893</v>
+        <v>0.006641990290494625</v>
       </c>
       <c r="D15">
-        <v>0.05225405930775987</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.05232962830197987</v>
+      </c>
+      <c r="E15">
+        <v>0.01765879741385034</v>
+      </c>
+      <c r="F15">
+        <v>-0.02937421950806547</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.0687231033668016</v>
+        <v>0.0678591538879779</v>
       </c>
       <c r="C16">
-        <v>-0.005852655087108143</v>
+        <v>0.001295655829399384</v>
       </c>
       <c r="D16">
-        <v>0.124034659363899</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.1348460988177037</v>
+      </c>
+      <c r="E16">
+        <v>0.07247775528633167</v>
+      </c>
+      <c r="F16">
+        <v>-0.01868650292087378</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.002366514015807995</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>-0.001073850090378047</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>0.002151680071817862</v>
+      </c>
+      <c r="E17">
+        <v>0.004987152141337132</v>
+      </c>
+      <c r="F17">
+        <v>0.004223977386446908</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0.02942027672432388</v>
+        <v>0.04632008569541699</v>
       </c>
       <c r="C18">
-        <v>0.0004788246946088654</v>
+        <v>-1.728131713660837e-05</v>
       </c>
       <c r="D18">
-        <v>0.02456664987620328</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>0.02309877618884237</v>
+      </c>
+      <c r="E18">
+        <v>-0.004380194057297405</v>
+      </c>
+      <c r="F18">
+        <v>0.01666903185259879</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.06223672831262037</v>
+        <v>0.06170852462205915</v>
       </c>
       <c r="C20">
-        <v>-0.004966032844936412</v>
+        <v>0.00235207518213224</v>
       </c>
       <c r="D20">
-        <v>0.08084484231624425</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.08462310152405624</v>
+      </c>
+      <c r="E20">
+        <v>0.0682006150513368</v>
+      </c>
+      <c r="F20">
+        <v>-0.03480903168395705</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.03966745882586194</v>
+        <v>0.04184635985471646</v>
       </c>
       <c r="C21">
-        <v>-0.009741455011770567</v>
+        <v>0.007283732790686097</v>
       </c>
       <c r="D21">
-        <v>0.04296996688234802</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.04218075701873565</v>
+      </c>
+      <c r="E21">
+        <v>0.002324062137872689</v>
+      </c>
+      <c r="F21">
+        <v>0.01449177002609237</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.04533660795488926</v>
+        <v>0.04417274173196564</v>
       </c>
       <c r="C22">
-        <v>-0.004486053100507076</v>
+        <v>0.002561527074051195</v>
       </c>
       <c r="D22">
-        <v>0.001031629210985985</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.01229865875607195</v>
+      </c>
+      <c r="E22">
+        <v>0.03618775065958068</v>
+      </c>
+      <c r="F22">
+        <v>0.1024241287886625</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.04534526489404111</v>
+        <v>0.04418014582434012</v>
       </c>
       <c r="C23">
-        <v>-0.00448839799754783</v>
+        <v>0.002563737370690077</v>
       </c>
       <c r="D23">
-        <v>0.001022775580060353</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.01229181814154776</v>
+      </c>
+      <c r="E23">
+        <v>0.03619459020889362</v>
+      </c>
+      <c r="F23">
+        <v>0.1024656510113001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.07643845563784017</v>
+        <v>0.07438177172338054</v>
       </c>
       <c r="C24">
-        <v>-0.006809484542683864</v>
+        <v>0.002441742775756552</v>
       </c>
       <c r="D24">
-        <v>0.1264238315010049</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.1289639512807999</v>
+      </c>
+      <c r="E24">
+        <v>0.05720843914879754</v>
+      </c>
+      <c r="F24">
+        <v>-0.02715355828720143</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.08134784004787238</v>
+        <v>0.07880448407837991</v>
       </c>
       <c r="C25">
-        <v>-0.009347404897888795</v>
+        <v>0.005306305182563734</v>
       </c>
       <c r="D25">
-        <v>0.1152660841209622</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.1178684275629441</v>
+      </c>
+      <c r="E25">
+        <v>0.04590971197940725</v>
+      </c>
+      <c r="F25">
+        <v>-0.02474494357292847</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.05676390767998733</v>
+        <v>0.06174858702859949</v>
       </c>
       <c r="C26">
-        <v>-0.01889638893167444</v>
+        <v>0.0162667760390322</v>
       </c>
       <c r="D26">
-        <v>0.05264328286610941</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.05860865009842708</v>
+      </c>
+      <c r="E26">
+        <v>0.03652296692386697</v>
+      </c>
+      <c r="F26">
+        <v>0.005350149082492616</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.1499680588817396</v>
+        <v>0.1548716712541688</v>
       </c>
       <c r="C28">
-        <v>-0.02712344904238322</v>
+        <v>0.03087643087945901</v>
       </c>
       <c r="D28">
-        <v>-0.2448666701853161</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.2434015014037711</v>
+      </c>
+      <c r="E28">
+        <v>-0.06394365818705866</v>
+      </c>
+      <c r="F28">
+        <v>-0.0178194350510361</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.02566687195391739</v>
+        <v>0.02789186397595937</v>
       </c>
       <c r="C29">
-        <v>-0.0097846717108231</v>
+        <v>0.009130901915818999</v>
       </c>
       <c r="D29">
-        <v>0.03484807635675941</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.03629108282245221</v>
+      </c>
+      <c r="E29">
+        <v>0.01783558795176045</v>
+      </c>
+      <c r="F29">
+        <v>0.01631612134352045</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.05219467185101808</v>
+        <v>0.0512636963750712</v>
       </c>
       <c r="C30">
-        <v>-0.005853290698352399</v>
+        <v>0.002380456121737191</v>
       </c>
       <c r="D30">
-        <v>0.07501145362393394</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.08065365263793138</v>
+      </c>
+      <c r="E30">
+        <v>0.02008371113314749</v>
+      </c>
+      <c r="F30">
+        <v>-0.1054143935786263</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.05135798948844766</v>
+        <v>0.05179942410120269</v>
       </c>
       <c r="C31">
-        <v>-0.01885284234110104</v>
+        <v>0.01699910915668066</v>
       </c>
       <c r="D31">
-        <v>0.02836581792151413</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.03053912769341918</v>
+      </c>
+      <c r="E31">
+        <v>0.03187788091446139</v>
+      </c>
+      <c r="F31">
+        <v>0.00906000934050567</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.04420692347506027</v>
+        <v>0.04956765212280924</v>
       </c>
       <c r="C32">
-        <v>-0.001518116073625705</v>
+        <v>-0.001099479828734631</v>
       </c>
       <c r="D32">
-        <v>0.03159873169296185</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.0357545029516217</v>
+      </c>
+      <c r="E32">
+        <v>0.03437812022488305</v>
+      </c>
+      <c r="F32">
+        <v>0.001950303935254432</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.08600338099471055</v>
+        <v>0.08760035691796696</v>
       </c>
       <c r="C33">
-        <v>-0.01329241756081787</v>
+        <v>0.00826276713169604</v>
       </c>
       <c r="D33">
-        <v>0.09757069115381965</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.1085111143232905</v>
+      </c>
+      <c r="E33">
+        <v>0.0619891111978142</v>
+      </c>
+      <c r="F33">
+        <v>-0.02552685976168123</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.06431662373308993</v>
+        <v>0.06404629256529332</v>
       </c>
       <c r="C34">
-        <v>-0.01541752445366729</v>
+        <v>0.01079976002921299</v>
       </c>
       <c r="D34">
-        <v>0.1035786678087859</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.1153026776772921</v>
+      </c>
+      <c r="E34">
+        <v>0.04709311989249921</v>
+      </c>
+      <c r="F34">
+        <v>-0.04176542431114406</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.02737838512926713</v>
+        <v>0.02846788087194624</v>
       </c>
       <c r="C35">
-        <v>-0.005142721958904933</v>
+        <v>0.004523927968334837</v>
       </c>
       <c r="D35">
-        <v>0.01029514950142855</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.0133301326347381</v>
+      </c>
+      <c r="E35">
+        <v>0.01976079619292728</v>
+      </c>
+      <c r="F35">
+        <v>0.001189803594795426</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.02295618387881278</v>
+        <v>0.02742975419030748</v>
       </c>
       <c r="C36">
-        <v>-0.00837899907238001</v>
+        <v>0.007536016828675348</v>
       </c>
       <c r="D36">
-        <v>0.04144119906525202</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.04458516243619166</v>
+      </c>
+      <c r="E36">
+        <v>0.0253530438280089</v>
+      </c>
+      <c r="F36">
+        <v>-0.02095062449541951</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.003111578584907202</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>-0.0008743520187400386</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>0.003236484914246927</v>
+      </c>
+      <c r="E37">
+        <v>0.001179447693819137</v>
+      </c>
+      <c r="F37">
+        <v>0.001376691263575858</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.1013858905168107</v>
+        <v>0.09290201560255515</v>
       </c>
       <c r="C39">
-        <v>-0.02149492837654175</v>
+        <v>0.01590045841190487</v>
       </c>
       <c r="D39">
-        <v>0.1592329481336765</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.1569365728274262</v>
+      </c>
+      <c r="E39">
+        <v>0.07644948321039655</v>
+      </c>
+      <c r="F39">
+        <v>-0.008138320364799561</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.0429291513031772</v>
+        <v>0.04833719444583218</v>
       </c>
       <c r="C40">
-        <v>-0.01171308616385618</v>
+        <v>0.01026095205125408</v>
       </c>
       <c r="D40">
-        <v>0.0348396912788001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.04124897503237463</v>
+      </c>
+      <c r="E40">
+        <v>0.005283667146470685</v>
+      </c>
+      <c r="F40">
+        <v>0.0221533174004335</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.02644488151298742</v>
+        <v>0.02852645184874183</v>
       </c>
       <c r="C41">
-        <v>-0.00845401912578937</v>
+        <v>0.008028657763733448</v>
       </c>
       <c r="D41">
-        <v>0.01370626705076995</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01517268162968484</v>
+      </c>
+      <c r="E41">
+        <v>0.01243063765429449</v>
+      </c>
+      <c r="F41">
+        <v>0.01086820942228959</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,122 +1531,176 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.04037826469620954</v>
+        <v>0.03931010185377978</v>
       </c>
       <c r="C43">
-        <v>-0.00903054936561409</v>
+        <v>0.008230302760848365</v>
       </c>
       <c r="D43">
-        <v>0.0242323722673121</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.02454562421796415</v>
+      </c>
+      <c r="E43">
+        <v>0.02914946153315756</v>
+      </c>
+      <c r="F43">
+        <v>0.02296537171196713</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.06175021852559374</v>
+        <v>0.06931112153266658</v>
       </c>
       <c r="C44">
-        <v>-0.02199321374005528</v>
+        <v>0.01882900541838155</v>
       </c>
       <c r="D44">
-        <v>0.0742762259713579</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.0840971362949689</v>
+      </c>
+      <c r="E44">
+        <v>0.07804995328906868</v>
+      </c>
+      <c r="F44">
+        <v>-0.2102691513709816</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>0.0001603794002714811</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>3.558131543968811e-05</v>
       </c>
       <c r="D45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>1.819447811675174e-05</v>
+      </c>
+      <c r="E45">
+        <v>-0.0003618793811461532</v>
+      </c>
+      <c r="F45">
+        <v>3.18332292352414e-05</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.02310128818411961</v>
+        <v>0.02539305958213688</v>
       </c>
       <c r="C46">
-        <v>-0.004982509228009406</v>
+        <v>0.004311332011419674</v>
       </c>
       <c r="D46">
-        <v>0.01783282563013914</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01988946464123022</v>
+      </c>
+      <c r="E46">
+        <v>0.03600215446350125</v>
+      </c>
+      <c r="F46">
+        <v>0.02280176212919027</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.05411403365712559</v>
+        <v>0.05303090402098088</v>
       </c>
       <c r="C47">
-        <v>-0.00734806747805506</v>
+        <v>0.005790619835656915</v>
       </c>
       <c r="D47">
-        <v>0.01437887885842681</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01607759478893027</v>
+      </c>
+      <c r="E47">
+        <v>0.02532732487979698</v>
+      </c>
+      <c r="F47">
+        <v>0.04351993366631263</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.04925127895203225</v>
+        <v>0.05291671220079057</v>
       </c>
       <c r="C48">
-        <v>-0.006159108628162985</v>
+        <v>0.00383322452888436</v>
       </c>
       <c r="D48">
-        <v>0.05945454552029837</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.06033318558835467</v>
+      </c>
+      <c r="E48">
+        <v>0.008591802489193227</v>
+      </c>
+      <c r="F48">
+        <v>-0.01683585189809688</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.1953044567074852</v>
+        <v>0.197620903275066</v>
       </c>
       <c r="C49">
-        <v>-0.02820675446956352</v>
+        <v>0.02459833007604081</v>
       </c>
       <c r="D49">
-        <v>-0.01320495057342382</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.007454268356970746</v>
+      </c>
+      <c r="E49">
+        <v>0.0168682233429329</v>
+      </c>
+      <c r="F49">
+        <v>-0.05547390451010371</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.04944114229706145</v>
+        <v>0.05227141233683509</v>
       </c>
       <c r="C50">
-        <v>-0.01458880206315068</v>
+        <v>0.0131918678490535</v>
       </c>
       <c r="D50">
-        <v>0.02693731067134822</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.02904371678128561</v>
+      </c>
+      <c r="E50">
+        <v>0.03466419332553104</v>
+      </c>
+      <c r="F50">
+        <v>-0.007066349114847856</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.1512625062461091</v>
+        <v>0.145005624827532</v>
       </c>
       <c r="C52">
-        <v>-0.02519824137732288</v>
+        <v>0.02136358372255098</v>
       </c>
       <c r="D52">
-        <v>0.04292807073663335</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>0.04553847650606872</v>
+      </c>
+      <c r="E52">
+        <v>0.03560869356109964</v>
+      </c>
+      <c r="F52">
+        <v>-0.0370744937115487</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1745110370285591</v>
+        <v>0.1671679652230763</v>
       </c>
       <c r="C53">
-        <v>-0.02821994290412745</v>
+        <v>0.02548557582596916</v>
       </c>
       <c r="D53">
-        <v>0.002957913082651246</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.00618202111716339</v>
+      </c>
+      <c r="E53">
+        <v>0.0430423598196374</v>
+      </c>
+      <c r="F53">
+        <v>-0.08239002129821797</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.01492325549693365</v>
+        <v>0.01801808105552159</v>
       </c>
       <c r="C54">
-        <v>-0.01202666126554384</v>
+        <v>0.0112766488932896</v>
       </c>
       <c r="D54">
-        <v>0.03117646318754741</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.03092390709724379</v>
+      </c>
+      <c r="E54">
+        <v>0.02321790586088935</v>
+      </c>
+      <c r="F54">
+        <v>0.0008218075741820683</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.119772693270973</v>
+        <v>0.1171626289581712</v>
       </c>
       <c r="C55">
-        <v>-0.02467002407779032</v>
+        <v>0.02229011823793373</v>
       </c>
       <c r="D55">
-        <v>0.005931153460893482</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.01383590061033917</v>
+      </c>
+      <c r="E55">
+        <v>0.04417592411591598</v>
+      </c>
+      <c r="F55">
+        <v>-0.02851768688674657</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1804814511789538</v>
+        <v>0.1746673434862698</v>
       </c>
       <c r="C56">
-        <v>-0.02657506964267055</v>
+        <v>0.02407799484358562</v>
       </c>
       <c r="D56">
-        <v>-0.005470861560954552</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.001430514947423904</v>
+      </c>
+      <c r="E56">
+        <v>0.04082362272284493</v>
+      </c>
+      <c r="F56">
+        <v>-0.04239518954860264</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.04504585608641883</v>
+        <v>0.04410923190300158</v>
       </c>
       <c r="C58">
-        <v>-0.004001022176690489</v>
+        <v>0.0003282799394823065</v>
       </c>
       <c r="D58">
-        <v>0.07836502628485302</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.08570218051883087</v>
+      </c>
+      <c r="E58">
+        <v>0.04659897166540245</v>
+      </c>
+      <c r="F58">
+        <v>0.04509843352248095</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.1698567805405673</v>
+        <v>0.174800467521416</v>
       </c>
       <c r="C59">
-        <v>-0.02686687032546476</v>
+        <v>0.02996322330243723</v>
       </c>
       <c r="D59">
-        <v>-0.2122231913839403</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.2109714907272651</v>
+      </c>
+      <c r="E59">
+        <v>-0.0595397976826309</v>
+      </c>
+      <c r="F59">
+        <v>0.0646043457856029</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.2251330410533671</v>
+        <v>0.2201325315756101</v>
       </c>
       <c r="C60">
-        <v>-0.007709063146664657</v>
+        <v>0.00358409382156576</v>
       </c>
       <c r="D60">
-        <v>0.01908578199764836</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.01949603587857937</v>
+      </c>
+      <c r="E60">
+        <v>-0.01684424364513179</v>
+      </c>
+      <c r="F60">
+        <v>0.011314132469059</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.07373222742860065</v>
+        <v>0.06976117942552142</v>
       </c>
       <c r="C61">
-        <v>-0.01505001109174136</v>
+        <v>0.01054723221019346</v>
       </c>
       <c r="D61">
-        <v>0.1176059807216095</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.1198762292183138</v>
+      </c>
+      <c r="E61">
+        <v>0.0448316660684655</v>
+      </c>
+      <c r="F61">
+        <v>0.001590534515451724</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.171169160805795</v>
+        <v>0.167033432935956</v>
       </c>
       <c r="C62">
-        <v>-0.0290958808530775</v>
+        <v>0.02617510706935922</v>
       </c>
       <c r="D62">
-        <v>0.001457428959694664</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.006831558632982128</v>
+      </c>
+      <c r="E62">
+        <v>0.04745070313656603</v>
+      </c>
+      <c r="F62">
+        <v>-0.0244061879098647</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.04234993956399041</v>
+        <v>0.04775848826900216</v>
       </c>
       <c r="C63">
-        <v>-0.005678958587974165</v>
+        <v>0.003445618802587419</v>
       </c>
       <c r="D63">
-        <v>0.06417749434597692</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.0719021583790219</v>
+      </c>
+      <c r="E63">
+        <v>0.03212259479781823</v>
+      </c>
+      <c r="F63">
+        <v>0.00242173118382735</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.1140297172245025</v>
+        <v>0.1112545388084698</v>
       </c>
       <c r="C64">
-        <v>-0.01923821347302516</v>
+        <v>0.01554821573424809</v>
       </c>
       <c r="D64">
-        <v>0.04612065734540424</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.04991648376853506</v>
+      </c>
+      <c r="E64">
+        <v>0.03418206091826991</v>
+      </c>
+      <c r="F64">
+        <v>-0.0224906845564491</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1504093514477209</v>
+        <v>0.1560455908188253</v>
       </c>
       <c r="C65">
-        <v>-0.04237450818336277</v>
+        <v>0.04110360374906138</v>
       </c>
       <c r="D65">
-        <v>-0.04796775598796434</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.03696197128836129</v>
+      </c>
+      <c r="E65">
+        <v>0.01262462663795378</v>
+      </c>
+      <c r="F65">
+        <v>-0.05191663360749355</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1228588129891305</v>
+        <v>0.1122014464931066</v>
       </c>
       <c r="C66">
-        <v>-0.02020642297689297</v>
+        <v>0.01413408888336119</v>
       </c>
       <c r="D66">
-        <v>0.1401201528975072</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1434050590522721</v>
+      </c>
+      <c r="E66">
+        <v>0.07128530125198278</v>
+      </c>
+      <c r="F66">
+        <v>-0.01339213966198444</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.06006504127793506</v>
+        <v>0.05300934570960284</v>
       </c>
       <c r="C67">
-        <v>-0.006308105994613609</v>
+        <v>0.003970678762554225</v>
       </c>
       <c r="D67">
-        <v>0.05419728423728626</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.05677818682006045</v>
+      </c>
+      <c r="E67">
+        <v>0.02275513048284416</v>
+      </c>
+      <c r="F67">
+        <v>0.08251311834124014</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.1204379441915988</v>
+        <v>0.1267490770488567</v>
       </c>
       <c r="C68">
-        <v>-0.03544703575306656</v>
+        <v>0.04034330278147926</v>
       </c>
       <c r="D68">
-        <v>-0.2497915004345044</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.2496794993207213</v>
+      </c>
+      <c r="E68">
+        <v>-0.09011239984495993</v>
+      </c>
+      <c r="F68">
+        <v>-0.03043676847985939</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.03951362647641594</v>
+        <v>0.03894396849850724</v>
       </c>
       <c r="C69">
-        <v>-0.003385061243808921</v>
+        <v>0.002421673171295839</v>
       </c>
       <c r="D69">
-        <v>0.009537774737035997</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01006755006814888</v>
+      </c>
+      <c r="E69">
+        <v>0.03067896001912503</v>
+      </c>
+      <c r="F69">
+        <v>0.02040555940218571</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.0688796376959693</v>
+        <v>0.07002566882957684</v>
       </c>
       <c r="C70">
-        <v>0.02320380765566564</v>
+        <v>-0.02457026759706585</v>
       </c>
       <c r="D70">
-        <v>0.04078610575841519</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.03841281109083168</v>
+      </c>
+      <c r="E70">
+        <v>-0.04325537188565315</v>
+      </c>
+      <c r="F70">
+        <v>0.3579872843725364</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.1403574553838303</v>
+        <v>0.1475560156634108</v>
       </c>
       <c r="C71">
-        <v>-0.04113454025302649</v>
+        <v>0.04584137186370042</v>
       </c>
       <c r="D71">
-        <v>-0.2628461310238526</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.2584610314096294</v>
+      </c>
+      <c r="E71">
+        <v>-0.09996186048634244</v>
+      </c>
+      <c r="F71">
+        <v>-0.03044062521092054</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1386833126458215</v>
+        <v>0.1446564532109643</v>
       </c>
       <c r="C72">
-        <v>-0.03306778627433508</v>
+        <v>0.03190971319736361</v>
       </c>
       <c r="D72">
-        <v>0.006955076721970605</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.004197566646183968</v>
+      </c>
+      <c r="E72">
+        <v>0.04842701893870201</v>
+      </c>
+      <c r="F72">
+        <v>-0.03057385308638051</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.195910522767914</v>
+        <v>0.2004168324410494</v>
       </c>
       <c r="C73">
-        <v>-0.02161772510859974</v>
+        <v>0.01674925283711284</v>
       </c>
       <c r="D73">
-        <v>0.006175908714617049</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.01354591690005184</v>
+      </c>
+      <c r="E73">
+        <v>0.06241259541944938</v>
+      </c>
+      <c r="F73">
+        <v>-0.0121585468522029</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.08805325609746911</v>
+        <v>0.08816181554568561</v>
       </c>
       <c r="C74">
-        <v>-0.01647594621157926</v>
+        <v>0.01455353898699115</v>
       </c>
       <c r="D74">
-        <v>0.0118125636318541</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.01722322228504917</v>
+      </c>
+      <c r="E74">
+        <v>0.04990425277401116</v>
+      </c>
+      <c r="F74">
+        <v>-0.04942237728419036</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.1296630459677452</v>
+        <v>0.1221855167806663</v>
       </c>
       <c r="C75">
-        <v>-0.0348835171600541</v>
+        <v>0.03168054851059524</v>
       </c>
       <c r="D75">
-        <v>0.02618218656731689</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.03146841495923069</v>
+      </c>
+      <c r="E75">
+        <v>0.06350760103500828</v>
+      </c>
+      <c r="F75">
+        <v>-0.01198741573197358</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.07880912330716287</v>
+        <v>0.09186646323418277</v>
       </c>
       <c r="C77">
-        <v>-0.01454301542661399</v>
+        <v>0.01100732039745051</v>
       </c>
       <c r="D77">
-        <v>0.1135647396643811</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.1143576906761999</v>
+      </c>
+      <c r="E77">
+        <v>0.05264178997277202</v>
+      </c>
+      <c r="F77">
+        <v>-0.04153663341779626</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.09659133704437482</v>
+        <v>0.09841600625237876</v>
       </c>
       <c r="C78">
-        <v>-0.04351168889188291</v>
+        <v>0.04059079306399538</v>
       </c>
       <c r="D78">
-        <v>0.1211334279598787</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.1181826315308098</v>
+      </c>
+      <c r="E78">
+        <v>0.0806571867391563</v>
+      </c>
+      <c r="F78">
+        <v>-0.03935684702308661</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1689704390181197</v>
+        <v>0.1645143940225667</v>
       </c>
       <c r="C79">
-        <v>-0.03276206983540463</v>
+        <v>0.02936128118113437</v>
       </c>
       <c r="D79">
-        <v>0.01185794464466438</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.01774030885841259</v>
+      </c>
+      <c r="E79">
+        <v>0.04974534117567792</v>
+      </c>
+      <c r="F79">
+        <v>-0.006653571949318366</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.07850289529255665</v>
+        <v>0.07678376043193806</v>
       </c>
       <c r="C80">
-        <v>-0.00353231727959724</v>
+        <v>0.001284072417267117</v>
       </c>
       <c r="D80">
-        <v>0.04723093544448009</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.04914849356994249</v>
+      </c>
+      <c r="E80">
+        <v>0.04196412452574325</v>
+      </c>
+      <c r="F80">
+        <v>0.04844017499073924</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1175842398901802</v>
+        <v>0.1115026383185388</v>
       </c>
       <c r="C81">
-        <v>-0.03671864304403803</v>
+        <v>0.03496887072200624</v>
       </c>
       <c r="D81">
-        <v>0.004095315373188592</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.009748973724828637</v>
+      </c>
+      <c r="E81">
+        <v>0.05624575107536921</v>
+      </c>
+      <c r="F81">
+        <v>-0.002569828516620559</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1631408555414179</v>
+        <v>0.161328260639231</v>
       </c>
       <c r="C82">
-        <v>-0.03253438800760153</v>
+        <v>0.02983727113766603</v>
       </c>
       <c r="D82">
-        <v>0.001199693404199137</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.002356901166337909</v>
+      </c>
+      <c r="E82">
+        <v>0.04231817468862358</v>
+      </c>
+      <c r="F82">
+        <v>-0.081075531021416</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.05527989140425105</v>
+        <v>0.05107627029612869</v>
       </c>
       <c r="C83">
-        <v>-0.005593805857355284</v>
+        <v>0.003589732193526592</v>
       </c>
       <c r="D83">
-        <v>0.04598854895483192</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.044975523070916</v>
+      </c>
+      <c r="E83">
+        <v>-0.005280503194296469</v>
+      </c>
+      <c r="F83">
+        <v>0.02641195969321992</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.05586683696655805</v>
+        <v>0.0524370379598381</v>
       </c>
       <c r="C84">
-        <v>-0.01351600640046572</v>
+        <v>0.01096004791655441</v>
       </c>
       <c r="D84">
-        <v>0.07293901719547828</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.07391206232293865</v>
+      </c>
+      <c r="E84">
+        <v>0.02243114662363072</v>
+      </c>
+      <c r="F84">
+        <v>-0.005489405030925507</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.1399911418863202</v>
+        <v>0.1344793136680779</v>
       </c>
       <c r="C85">
-        <v>-0.03585790935596699</v>
+        <v>0.03323326477758547</v>
       </c>
       <c r="D85">
-        <v>0.00766756889547321</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.01204346597685377</v>
+      </c>
+      <c r="E85">
+        <v>0.04983019598708505</v>
+      </c>
+      <c r="F85">
+        <v>-0.05385242826139565</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.08124350121910123</v>
+        <v>0.08025355970036928</v>
       </c>
       <c r="C86">
-        <v>0.005160078656149045</v>
+        <v>-0.007091560013916315</v>
       </c>
       <c r="D86">
-        <v>0.02946346127320627</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.05492905254514025</v>
+      </c>
+      <c r="E86">
+        <v>0.06331873487928238</v>
+      </c>
+      <c r="F86">
+        <v>0.8130490189193257</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.08957662250979299</v>
+        <v>0.08952149470867297</v>
       </c>
       <c r="C87">
-        <v>-0.02679963887358839</v>
+        <v>0.02236029975354948</v>
       </c>
       <c r="D87">
-        <v>0.084677532668386</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.08763706206856284</v>
+      </c>
+      <c r="E87">
+        <v>-0.05604369100411724</v>
+      </c>
+      <c r="F87">
+        <v>-0.08345593811345615</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.06229588002056512</v>
+        <v>0.06093769955621369</v>
       </c>
       <c r="C88">
-        <v>-0.006624426370098906</v>
+        <v>0.004324693458839047</v>
       </c>
       <c r="D88">
-        <v>0.05841069330117861</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.05664978949743326</v>
+      </c>
+      <c r="E88">
+        <v>0.03431832210266407</v>
+      </c>
+      <c r="F88">
+        <v>-0.003668714451881617</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.129020043689153</v>
+        <v>0.1340596656902875</v>
       </c>
       <c r="C89">
-        <v>-0.0155847690640153</v>
+        <v>0.0202356313359203</v>
       </c>
       <c r="D89">
-        <v>-0.2258468424539288</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.2320368016503995</v>
+      </c>
+      <c r="E89">
+        <v>-0.09206230544627544</v>
+      </c>
+      <c r="F89">
+        <v>-0.01970711153542691</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1516141584566041</v>
+        <v>0.1627157512646679</v>
       </c>
       <c r="C90">
-        <v>-0.03768275246897825</v>
+        <v>0.04309989841132646</v>
       </c>
       <c r="D90">
-        <v>-0.2509961231399208</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.2555200324862446</v>
+      </c>
+      <c r="E90">
+        <v>-0.1190895226863859</v>
+      </c>
+      <c r="F90">
+        <v>-0.02445539502236216</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.1259468879623278</v>
+        <v>0.1213037476033238</v>
       </c>
       <c r="C91">
-        <v>-0.02663860849032775</v>
+        <v>0.02519099151520867</v>
       </c>
       <c r="D91">
-        <v>-0.01988098572337606</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.01505614560924904</v>
+      </c>
+      <c r="E91">
+        <v>0.05646029038964672</v>
+      </c>
+      <c r="F91">
+        <v>0.02585102675432479</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1517498892154334</v>
+        <v>0.155234307852109</v>
       </c>
       <c r="C92">
-        <v>-0.02852000176116302</v>
+        <v>0.03341393848113257</v>
       </c>
       <c r="D92">
-        <v>-0.2780479776206332</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.2827045468094639</v>
+      </c>
+      <c r="E92">
+        <v>-0.1083773961366179</v>
+      </c>
+      <c r="F92">
+        <v>-0.01117926985126459</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1558803273870306</v>
+        <v>0.1651576953439743</v>
       </c>
       <c r="C93">
-        <v>-0.03347152668217275</v>
+        <v>0.03773669234386035</v>
       </c>
       <c r="D93">
-        <v>-0.2446710407020028</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.2494760328690404</v>
+      </c>
+      <c r="E93">
+        <v>-0.07104687933058938</v>
+      </c>
+      <c r="F93">
+        <v>-0.02059802610715337</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.1287765328225516</v>
+        <v>0.1215897753521547</v>
       </c>
       <c r="C94">
-        <v>-0.03093295521034482</v>
+        <v>0.02732334986914096</v>
       </c>
       <c r="D94">
-        <v>0.03963636236926275</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.04356857053441348</v>
+      </c>
+      <c r="E94">
+        <v>0.06614435493871884</v>
+      </c>
+      <c r="F94">
+        <v>-0.01535626296791983</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.1258809297638138</v>
+        <v>0.1285871555816007</v>
       </c>
       <c r="C95">
-        <v>-0.01232517149807998</v>
+        <v>0.007320907570134659</v>
       </c>
       <c r="D95">
-        <v>0.09534284762889317</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1061422319218095</v>
+      </c>
+      <c r="E95">
+        <v>0.06481164951808457</v>
+      </c>
+      <c r="F95">
+        <v>0.02072108375411605</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>0.1593085217629627</v>
+        <v>0.1443126900026727</v>
       </c>
       <c r="C96">
-        <v>0.9812045193446329</v>
+        <v>-0.9825277563368077</v>
       </c>
       <c r="D96">
-        <v>-0.03800013628532102</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>-0.05780052395760943</v>
+      </c>
+      <c r="E96">
+        <v>0.05234463089974014</v>
+      </c>
+      <c r="F96">
+        <v>-0.04297307171466214</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.1904674914608939</v>
+        <v>0.1936680449377452</v>
       </c>
       <c r="C97">
-        <v>-0.003725113695152665</v>
+        <v>0.0003948831208803082</v>
       </c>
       <c r="D97">
-        <v>-0.0212932971953</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.02612477205613285</v>
+      </c>
+      <c r="E97">
+        <v>0.0142392723876196</v>
+      </c>
+      <c r="F97">
+        <v>0.1750573541175134</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.1948039542237965</v>
+        <v>0.2009975796809289</v>
       </c>
       <c r="C98">
-        <v>-0.01661035885823025</v>
+        <v>0.01138645163434566</v>
       </c>
       <c r="D98">
-        <v>0.01316429955592577</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.01489089717878257</v>
+      </c>
+      <c r="E98">
+        <v>-0.1015619541072467</v>
+      </c>
+      <c r="F98">
+        <v>0.08519215528319646</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.05775852315983185</v>
+        <v>0.0574683221115978</v>
       </c>
       <c r="C99">
-        <v>6.390860982465877e-05</v>
+        <v>-0.002123766051237414</v>
       </c>
       <c r="D99">
-        <v>0.04377783344198975</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.04899369448815124</v>
+      </c>
+      <c r="E99">
+        <v>0.03142356484809973</v>
+      </c>
+      <c r="F99">
+        <v>0.005795869152477771</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.1393966740751167</v>
+        <v>0.1295590859757857</v>
       </c>
       <c r="C100">
-        <v>0.03721667101946492</v>
+        <v>-0.04598860406413517</v>
       </c>
       <c r="D100">
-        <v>0.4274220158906386</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>0.3832733253138085</v>
+      </c>
+      <c r="E100">
+        <v>-0.8839874886952388</v>
+      </c>
+      <c r="F100">
+        <v>-0.01035904568125922</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.02567556671136527</v>
+        <v>0.02795121418155639</v>
       </c>
       <c r="C101">
-        <v>-0.00979723565802261</v>
+        <v>0.009163513959497547</v>
       </c>
       <c r="D101">
-        <v>0.03436656778548262</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.03582591978844752</v>
+      </c>
+      <c r="E101">
+        <v>0.01720529850035269</v>
+      </c>
+      <c r="F101">
+        <v>0.01878242388171976</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
